--- a/data/Marker_data/WMB_DH_AlaAT_KASP_rawdata.xlsx
+++ b/data/Marker_data/WMB_DH_AlaAT_KASP_rawdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karl\git\BarleyGermination-KK\data\Marker_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98164C3E-AC0F-467C-997F-F5091F083FA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FD02D4-6B1E-4C52-919C-35A2850B3B25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Amplification Data" sheetId="2" r:id="rId2"/>
     <sheet name="Results" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -3051,7 +3051,7 @@
     <t>Sort</t>
   </si>
   <si>
-    <t>Allelle</t>
+    <t>Allele</t>
   </si>
 </sst>
 </file>
@@ -21462,8 +21462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD509"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L500" sqref="L500"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24845,7 +24845,7 @@
         <v>491</v>
       </c>
       <c r="L81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W81" s="1" t="s">
         <v>34</v>
@@ -24886,7 +24886,7 @@
         <v>491</v>
       </c>
       <c r="L82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W82" s="1" t="s">
         <v>34</v>
@@ -24968,7 +24968,7 @@
         <v>491</v>
       </c>
       <c r="L84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W84" s="1" t="s">
         <v>34</v>
@@ -25050,7 +25050,7 @@
         <v>491</v>
       </c>
       <c r="L86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W86" s="1" t="s">
         <v>34</v>
@@ -25132,7 +25132,7 @@
         <v>491</v>
       </c>
       <c r="L88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W88" s="1" t="s">
         <v>34</v>
@@ -25214,7 +25214,7 @@
         <v>491</v>
       </c>
       <c r="L90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W90" s="1" t="s">
         <v>34</v>
@@ -25255,7 +25255,7 @@
         <v>491</v>
       </c>
       <c r="L91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W91" s="1" t="s">
         <v>34</v>
@@ -25296,7 +25296,7 @@
         <v>492</v>
       </c>
       <c r="L92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W92" s="1" t="s">
         <v>34</v>
@@ -25337,7 +25337,7 @@
         <v>491</v>
       </c>
       <c r="L93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W93" s="1" t="s">
         <v>34</v>
@@ -25747,7 +25747,7 @@
         <v>492</v>
       </c>
       <c r="L103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W103" s="1" t="s">
         <v>34</v>
@@ -25788,7 +25788,7 @@
         <v>491</v>
       </c>
       <c r="L104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W104" s="1" t="s">
         <v>34</v>
@@ -25829,7 +25829,7 @@
         <v>491</v>
       </c>
       <c r="L105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W105" s="1" t="s">
         <v>34</v>
@@ -25870,7 +25870,7 @@
         <v>491</v>
       </c>
       <c r="L106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W106" s="1" t="s">
         <v>34</v>
@@ -25911,7 +25911,7 @@
         <v>491</v>
       </c>
       <c r="L107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W107" s="1" t="s">
         <v>34</v>
@@ -25993,7 +25993,7 @@
         <v>491</v>
       </c>
       <c r="L109" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W109" s="1" t="s">
         <v>34</v>
@@ -26034,7 +26034,7 @@
         <v>491</v>
       </c>
       <c r="L110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W110" s="1" t="s">
         <v>34</v>
@@ -26075,7 +26075,7 @@
         <v>491</v>
       </c>
       <c r="L111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W111" s="1" t="s">
         <v>34</v>
@@ -26157,7 +26157,7 @@
         <v>491</v>
       </c>
       <c r="L113" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W113" s="1" t="s">
         <v>34</v>
@@ -26198,7 +26198,7 @@
         <v>492</v>
       </c>
       <c r="L114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W114" s="1" t="s">
         <v>34</v>
@@ -26239,7 +26239,7 @@
         <v>491</v>
       </c>
       <c r="L115" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W115" s="1" t="s">
         <v>34</v>
@@ -26321,7 +26321,7 @@
         <v>491</v>
       </c>
       <c r="L117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W117" s="1" t="s">
         <v>34</v>
@@ -26362,7 +26362,7 @@
         <v>491</v>
       </c>
       <c r="L118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W118" s="1" t="s">
         <v>34</v>
@@ -26608,7 +26608,7 @@
         <v>491</v>
       </c>
       <c r="L124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W124" s="1" t="s">
         <v>34</v>
@@ -26690,7 +26690,7 @@
         <v>492</v>
       </c>
       <c r="L126" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W126" s="1" t="s">
         <v>34</v>
@@ -26813,7 +26813,7 @@
         <v>491</v>
       </c>
       <c r="L129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W129" s="1" t="s">
         <v>34</v>
@@ -26936,7 +26936,7 @@
         <v>491</v>
       </c>
       <c r="L132" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W132" s="1" t="s">
         <v>34</v>
@@ -26977,7 +26977,7 @@
         <v>491</v>
       </c>
       <c r="L133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W133" s="1" t="s">
         <v>34</v>
@@ -27059,7 +27059,7 @@
         <v>491</v>
       </c>
       <c r="L135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W135" s="1" t="s">
         <v>34</v>
@@ -27100,7 +27100,7 @@
         <v>491</v>
       </c>
       <c r="L136" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W136" s="1" t="s">
         <v>34</v>
@@ -27141,7 +27141,7 @@
         <v>492</v>
       </c>
       <c r="L137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W137" s="1" t="s">
         <v>34</v>
@@ -27182,7 +27182,7 @@
         <v>491</v>
       </c>
       <c r="L138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W138" s="1" t="s">
         <v>34</v>
@@ -27264,7 +27264,7 @@
         <v>491</v>
       </c>
       <c r="L140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W140" s="1" t="s">
         <v>34</v>
@@ -27387,7 +27387,7 @@
         <v>491</v>
       </c>
       <c r="L143" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W143" s="1" t="s">
         <v>34</v>
@@ -27510,7 +27510,7 @@
         <v>491</v>
       </c>
       <c r="L146" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W146" s="1" t="s">
         <v>34</v>
@@ -27551,7 +27551,7 @@
         <v>491</v>
       </c>
       <c r="L147" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W147" s="1" t="s">
         <v>34</v>
@@ -27592,7 +27592,7 @@
         <v>491</v>
       </c>
       <c r="L148" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W148" s="1" t="s">
         <v>34</v>
@@ -27633,7 +27633,7 @@
         <v>491</v>
       </c>
       <c r="L149" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W149" s="1" t="s">
         <v>34</v>
@@ -27715,7 +27715,7 @@
         <v>491</v>
       </c>
       <c r="L151" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W151" s="1" t="s">
         <v>34</v>
@@ -27838,7 +27838,7 @@
         <v>491</v>
       </c>
       <c r="L154" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W154" s="1" t="s">
         <v>34</v>
@@ -28002,7 +28002,7 @@
         <v>492</v>
       </c>
       <c r="L158" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W158" s="1" t="s">
         <v>34</v>
@@ -28207,7 +28207,7 @@
         <v>491</v>
       </c>
       <c r="L163" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W163" s="1" t="s">
         <v>34</v>
@@ -28289,7 +28289,7 @@
         <v>491</v>
       </c>
       <c r="L165" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W165" s="1" t="s">
         <v>34</v>
@@ -28330,7 +28330,7 @@
         <v>491</v>
       </c>
       <c r="L166" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W166" s="1" t="s">
         <v>34</v>
@@ -28576,7 +28576,7 @@
         <v>491</v>
       </c>
       <c r="L172" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W172" s="1" t="s">
         <v>34</v>
@@ -28699,7 +28699,7 @@
         <v>492</v>
       </c>
       <c r="L175" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W175" s="1" t="s">
         <v>34</v>
@@ -28740,7 +28740,7 @@
         <v>491</v>
       </c>
       <c r="L176" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W176" s="1" t="s">
         <v>34</v>
@@ -28781,7 +28781,7 @@
         <v>491</v>
       </c>
       <c r="L177" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W177" s="1" t="s">
         <v>34</v>
@@ -28863,7 +28863,7 @@
         <v>491</v>
       </c>
       <c r="L179" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W179" s="1" t="s">
         <v>34</v>
@@ -28904,7 +28904,7 @@
         <v>491</v>
       </c>
       <c r="L180" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W180" s="1" t="s">
         <v>34</v>
@@ -28945,7 +28945,7 @@
         <v>491</v>
       </c>
       <c r="L181" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W181" s="1" t="s">
         <v>34</v>
@@ -29027,7 +29027,7 @@
         <v>491</v>
       </c>
       <c r="L183" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W183" s="1" t="s">
         <v>34</v>
@@ -29232,7 +29232,7 @@
         <v>491</v>
       </c>
       <c r="L188" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W188" s="1" t="s">
         <v>34</v>
@@ -29396,7 +29396,7 @@
         <v>491</v>
       </c>
       <c r="L192" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W192" s="1" t="s">
         <v>34</v>
@@ -29478,7 +29478,7 @@
         <v>491</v>
       </c>
       <c r="L194" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X194" s="1" t="s">
         <v>34</v>
@@ -29519,7 +29519,7 @@
         <v>491</v>
       </c>
       <c r="L195" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X195" s="1" t="s">
         <v>34</v>
@@ -29560,7 +29560,7 @@
         <v>491</v>
       </c>
       <c r="L196" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X196" s="1" t="s">
         <v>34</v>
@@ -29642,7 +29642,7 @@
         <v>491</v>
       </c>
       <c r="L198" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X198" s="1" t="s">
         <v>34</v>
@@ -29683,7 +29683,7 @@
         <v>492</v>
       </c>
       <c r="L199" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X199" s="1" t="s">
         <v>34</v>
@@ -29724,7 +29724,7 @@
         <v>491</v>
       </c>
       <c r="L200" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X200" s="1" t="s">
         <v>34</v>
@@ -29765,7 +29765,7 @@
         <v>492</v>
       </c>
       <c r="L201" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X201" s="1" t="s">
         <v>34</v>
@@ -29806,7 +29806,7 @@
         <v>491</v>
       </c>
       <c r="L202" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X202" s="1" t="s">
         <v>34</v>
@@ -30011,7 +30011,7 @@
         <v>491</v>
       </c>
       <c r="L207" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X207" s="1" t="s">
         <v>34</v>
@@ -30134,7 +30134,7 @@
         <v>492</v>
       </c>
       <c r="L210" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X210" s="1" t="s">
         <v>34</v>
@@ -30175,7 +30175,7 @@
         <v>491</v>
       </c>
       <c r="L211" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X211" s="1" t="s">
         <v>34</v>
@@ -30216,7 +30216,7 @@
         <v>491</v>
       </c>
       <c r="L212" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X212" s="1" t="s">
         <v>34</v>
@@ -30257,7 +30257,7 @@
         <v>491</v>
       </c>
       <c r="L213" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X213" s="1" t="s">
         <v>34</v>
@@ -30421,7 +30421,7 @@
         <v>491</v>
       </c>
       <c r="L217" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X217" s="1" t="s">
         <v>34</v>
@@ -30462,7 +30462,7 @@
         <v>491</v>
       </c>
       <c r="L218" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X218" s="1" t="s">
         <v>34</v>
@@ -30544,7 +30544,7 @@
         <v>491</v>
       </c>
       <c r="L220" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X220" s="1" t="s">
         <v>34</v>
@@ -30708,7 +30708,7 @@
         <v>491</v>
       </c>
       <c r="L224" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X224" s="1" t="s">
         <v>34</v>
@@ -30831,7 +30831,7 @@
         <v>491</v>
       </c>
       <c r="L227" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X227" s="1" t="s">
         <v>34</v>
@@ -30913,7 +30913,7 @@
         <v>491</v>
       </c>
       <c r="L229" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X229" s="1" t="s">
         <v>34</v>
@@ -31033,7 +31033,7 @@
         <v>491</v>
       </c>
       <c r="L232" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X232" s="1" t="s">
         <v>34</v>
@@ -31074,7 +31074,7 @@
         <v>491</v>
       </c>
       <c r="L233" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X233" s="1" t="s">
         <v>34</v>
@@ -31238,7 +31238,7 @@
         <v>491</v>
       </c>
       <c r="L237" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X237" s="1" t="s">
         <v>34</v>
@@ -31320,7 +31320,7 @@
         <v>491</v>
       </c>
       <c r="L239" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X239" s="1" t="s">
         <v>34</v>
@@ -31361,7 +31361,7 @@
         <v>491</v>
       </c>
       <c r="L240" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X240" s="1" t="s">
         <v>34</v>
@@ -31402,7 +31402,7 @@
         <v>491</v>
       </c>
       <c r="L241" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X241" s="1" t="s">
         <v>34</v>
@@ -31443,7 +31443,7 @@
         <v>492</v>
       </c>
       <c r="L242" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X242" s="1" t="s">
         <v>34</v>
@@ -31484,7 +31484,7 @@
         <v>491</v>
       </c>
       <c r="L243" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X243" s="1" t="s">
         <v>34</v>
@@ -31566,7 +31566,7 @@
         <v>491</v>
       </c>
       <c r="L245" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X245" s="1" t="s">
         <v>34</v>
@@ -31648,7 +31648,7 @@
         <v>491</v>
       </c>
       <c r="L247" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X247" s="1" t="s">
         <v>34</v>
@@ -31689,7 +31689,7 @@
         <v>491</v>
       </c>
       <c r="L248" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X248" s="1" t="s">
         <v>34</v>
@@ -31730,7 +31730,7 @@
         <v>491</v>
       </c>
       <c r="L249" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X249" s="1" t="s">
         <v>34</v>
@@ -31812,7 +31812,7 @@
         <v>491</v>
       </c>
       <c r="L251" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X251" s="1" t="s">
         <v>34</v>
@@ -31935,7 +31935,7 @@
         <v>491</v>
       </c>
       <c r="L254" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X254" s="1" t="s">
         <v>34</v>
@@ -32345,7 +32345,7 @@
         <v>491</v>
       </c>
       <c r="L264" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X264" s="1" t="s">
         <v>34</v>
@@ -32550,7 +32550,7 @@
         <v>491</v>
       </c>
       <c r="L269" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X269" s="1" t="s">
         <v>34</v>
@@ -32591,7 +32591,7 @@
         <v>491</v>
       </c>
       <c r="L270" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X270" s="1" t="s">
         <v>34</v>
@@ -32632,7 +32632,7 @@
         <v>491</v>
       </c>
       <c r="L271" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X271" s="1" t="s">
         <v>34</v>
@@ -33165,7 +33165,7 @@
         <v>491</v>
       </c>
       <c r="L284" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X284" s="1" t="s">
         <v>34</v>
@@ -33370,7 +33370,7 @@
         <v>491</v>
       </c>
       <c r="L289" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X289" s="1" t="s">
         <v>34</v>
@@ -33739,7 +33739,7 @@
         <v>491</v>
       </c>
       <c r="L298" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X298" s="1" t="s">
         <v>34</v>
@@ -33780,7 +33780,7 @@
         <v>491</v>
       </c>
       <c r="L299" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X299" s="1" t="s">
         <v>34</v>
@@ -33821,7 +33821,7 @@
         <v>491</v>
       </c>
       <c r="L300" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X300" s="1" t="s">
         <v>34</v>
@@ -33903,7 +33903,7 @@
         <v>491</v>
       </c>
       <c r="L302" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X302" s="1" t="s">
         <v>34</v>
@@ -34026,7 +34026,7 @@
         <v>491</v>
       </c>
       <c r="L305" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X305" s="1" t="s">
         <v>34</v>
@@ -34067,7 +34067,7 @@
         <v>491</v>
       </c>
       <c r="L306" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X306" s="1" t="s">
         <v>34</v>
@@ -34518,7 +34518,7 @@
         <v>491</v>
       </c>
       <c r="L317" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X317" s="1" t="s">
         <v>34</v>
@@ -34559,7 +34559,7 @@
         <v>491</v>
       </c>
       <c r="L318" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:24" x14ac:dyDescent="0.35">
@@ -34673,7 +34673,7 @@
         <v>491</v>
       </c>
       <c r="L321" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.35">
@@ -34749,7 +34749,7 @@
         <v>492</v>
       </c>
       <c r="L323" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.35">
@@ -34863,7 +34863,7 @@
         <v>491</v>
       </c>
       <c r="L326" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.35">
@@ -35015,7 +35015,7 @@
         <v>491</v>
       </c>
       <c r="L330" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.35">
@@ -35091,7 +35091,7 @@
         <v>491</v>
       </c>
       <c r="L332" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.35">
@@ -35167,7 +35167,7 @@
         <v>491</v>
       </c>
       <c r="L334" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.35">
@@ -35205,7 +35205,7 @@
         <v>491</v>
       </c>
       <c r="L335" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.35">
@@ -35357,7 +35357,7 @@
         <v>491</v>
       </c>
       <c r="L339" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.35">
@@ -35395,7 +35395,7 @@
         <v>491</v>
       </c>
       <c r="L340" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.35">
@@ -35471,7 +35471,7 @@
         <v>491</v>
       </c>
       <c r="L342" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.35">
@@ -35547,7 +35547,7 @@
         <v>491</v>
       </c>
       <c r="L344" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.35">
@@ -35661,7 +35661,7 @@
         <v>491</v>
       </c>
       <c r="L347" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.35">
@@ -35851,7 +35851,7 @@
         <v>491</v>
       </c>
       <c r="L352" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.35">
@@ -35889,7 +35889,7 @@
         <v>491</v>
       </c>
       <c r="L353" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.35">
@@ -35927,7 +35927,7 @@
         <v>491</v>
       </c>
       <c r="L354" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.35">
@@ -35965,7 +35965,7 @@
         <v>491</v>
       </c>
       <c r="L355" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.35">
@@ -36155,7 +36155,7 @@
         <v>491</v>
       </c>
       <c r="L360" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.35">
@@ -36231,7 +36231,7 @@
         <v>491</v>
       </c>
       <c r="L362" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.35">
@@ -36269,7 +36269,7 @@
         <v>491</v>
       </c>
       <c r="L363" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.35">
@@ -36383,7 +36383,7 @@
         <v>491</v>
       </c>
       <c r="L366" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.35">
@@ -36459,7 +36459,7 @@
         <v>491</v>
       </c>
       <c r="L368" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.35">
@@ -36497,7 +36497,7 @@
         <v>491</v>
       </c>
       <c r="L369" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.35">
@@ -36535,7 +36535,7 @@
         <v>491</v>
       </c>
       <c r="L370" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.35">
@@ -36687,7 +36687,7 @@
         <v>491</v>
       </c>
       <c r="L374" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.35">
@@ -36801,7 +36801,7 @@
         <v>491</v>
       </c>
       <c r="L377" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.35">
@@ -37029,7 +37029,7 @@
         <v>491</v>
       </c>
       <c r="L383" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.35">
@@ -37105,7 +37105,7 @@
         <v>491</v>
       </c>
       <c r="L385" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.35">
@@ -37219,7 +37219,7 @@
         <v>492</v>
       </c>
       <c r="L388" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.35">
@@ -37295,7 +37295,7 @@
         <v>491</v>
       </c>
       <c r="L390" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.35">
@@ -37371,7 +37371,7 @@
         <v>491</v>
       </c>
       <c r="L392" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.35">
@@ -37409,7 +37409,7 @@
         <v>491</v>
       </c>
       <c r="L393" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.35">
@@ -37561,7 +37561,7 @@
         <v>491</v>
       </c>
       <c r="L397" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.35">
@@ -37637,7 +37637,7 @@
         <v>491</v>
       </c>
       <c r="L399" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.35">
@@ -37903,7 +37903,7 @@
         <v>491</v>
       </c>
       <c r="L406" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.35">
@@ -37941,7 +37941,7 @@
         <v>491</v>
       </c>
       <c r="L407" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.35">
@@ -37979,7 +37979,7 @@
         <v>491</v>
       </c>
       <c r="L408" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.35">
@@ -38055,7 +38055,7 @@
         <v>491</v>
       </c>
       <c r="L410" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.35">
@@ -38169,7 +38169,7 @@
         <v>491</v>
       </c>
       <c r="L413" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.35">
@@ -38207,7 +38207,7 @@
         <v>491</v>
       </c>
       <c r="L414" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.35">
@@ -38245,7 +38245,7 @@
         <v>491</v>
       </c>
       <c r="L415" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.35">
@@ -38435,7 +38435,7 @@
         <v>491</v>
       </c>
       <c r="L420" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.35">
@@ -38587,7 +38587,7 @@
         <v>491</v>
       </c>
       <c r="L424" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.35">
@@ -38663,7 +38663,7 @@
         <v>491</v>
       </c>
       <c r="L426" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.35">
@@ -38777,7 +38777,7 @@
         <v>491</v>
       </c>
       <c r="L429" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.35">
@@ -38815,7 +38815,7 @@
         <v>491</v>
       </c>
       <c r="L430" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.35">
@@ -38853,7 +38853,7 @@
         <v>491</v>
       </c>
       <c r="L431" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.35">
@@ -38929,7 +38929,7 @@
         <v>491</v>
       </c>
       <c r="L433" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.35">
@@ -38967,7 +38967,7 @@
         <v>491</v>
       </c>
       <c r="L434" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.35">
@@ -39005,7 +39005,7 @@
         <v>491</v>
       </c>
       <c r="L435" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.35">
@@ -39043,7 +39043,7 @@
         <v>491</v>
       </c>
       <c r="L436" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.35">
@@ -39119,7 +39119,7 @@
         <v>491</v>
       </c>
       <c r="L438" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.35">
@@ -39157,7 +39157,7 @@
         <v>491</v>
       </c>
       <c r="L439" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.35">
@@ -39271,7 +39271,7 @@
         <v>491</v>
       </c>
       <c r="L442" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.35">
@@ -39309,7 +39309,7 @@
         <v>491</v>
       </c>
       <c r="L443" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.35">
@@ -39347,7 +39347,7 @@
         <v>491</v>
       </c>
       <c r="L444" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.35">
@@ -39537,7 +39537,7 @@
         <v>491</v>
       </c>
       <c r="L449" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.35">
@@ -39575,7 +39575,7 @@
         <v>491</v>
       </c>
       <c r="L450" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.35">
@@ -39613,7 +39613,7 @@
         <v>491</v>
       </c>
       <c r="L451" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.35">
@@ -39727,7 +39727,7 @@
         <v>491</v>
       </c>
       <c r="L454" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.35">
@@ -39765,7 +39765,7 @@
         <v>491</v>
       </c>
       <c r="L455" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.35">
@@ -39917,7 +39917,7 @@
         <v>491</v>
       </c>
       <c r="L459" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.35">
@@ -39993,7 +39993,7 @@
         <v>491</v>
       </c>
       <c r="L461" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.35">
@@ -40031,7 +40031,7 @@
         <v>491</v>
       </c>
       <c r="L462" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.35">
@@ -40107,7 +40107,7 @@
         <v>491</v>
       </c>
       <c r="L464" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:12" x14ac:dyDescent="0.35">
@@ -40145,7 +40145,7 @@
         <v>491</v>
       </c>
       <c r="L465" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.35">
@@ -40297,7 +40297,7 @@
         <v>492</v>
       </c>
       <c r="L469" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:12" x14ac:dyDescent="0.35">
@@ -40373,7 +40373,7 @@
         <v>491</v>
       </c>
       <c r="L471" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.35">
@@ -40525,7 +40525,7 @@
         <v>491</v>
       </c>
       <c r="L475" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:12" x14ac:dyDescent="0.35">
@@ -40563,7 +40563,7 @@
         <v>491</v>
       </c>
       <c r="L476" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.35">
@@ -40715,7 +40715,7 @@
         <v>491</v>
       </c>
       <c r="L480" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.35">
@@ -40753,7 +40753,7 @@
         <v>491</v>
       </c>
       <c r="L481" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.35">
@@ -40829,7 +40829,7 @@
         <v>491</v>
       </c>
       <c r="L483" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.35">
@@ -40867,7 +40867,7 @@
         <v>491</v>
       </c>
       <c r="L484" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.35">
@@ -40905,7 +40905,7 @@
         <v>491</v>
       </c>
       <c r="L485" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.35">
@@ -40981,7 +40981,7 @@
         <v>491</v>
       </c>
       <c r="L487" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.35">
@@ -41095,7 +41095,7 @@
         <v>491</v>
       </c>
       <c r="L490" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.35">
@@ -41133,7 +41133,7 @@
         <v>491</v>
       </c>
       <c r="L491" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.35">
@@ -41171,7 +41171,7 @@
         <v>491</v>
       </c>
       <c r="L492" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.35">
@@ -41209,7 +41209,7 @@
         <v>491</v>
       </c>
       <c r="L493" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.35">
@@ -41247,7 +41247,7 @@
         <v>491</v>
       </c>
       <c r="L494" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.35">
@@ -41285,7 +41285,7 @@
         <v>491</v>
       </c>
       <c r="L495" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.35">
@@ -41361,7 +41361,7 @@
         <v>491</v>
       </c>
       <c r="L497" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.35">
@@ -41513,7 +41513,7 @@
         <v>491</v>
       </c>
       <c r="L501" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:12" x14ac:dyDescent="0.35">
@@ -41551,7 +41551,7 @@
         <v>491</v>
       </c>
       <c r="L502" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.35">
@@ -41589,7 +41589,7 @@
         <v>491</v>
       </c>
       <c r="L503" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.35">
@@ -41703,7 +41703,7 @@
         <v>491</v>
       </c>
       <c r="L506" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:12" x14ac:dyDescent="0.35">
@@ -41741,7 +41741,7 @@
         <v>491</v>
       </c>
       <c r="L507" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:12" x14ac:dyDescent="0.35">
@@ -41814,11 +41814,11 @@
         <v>491</v>
       </c>
       <c r="L509" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD510">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE510">
     <sortCondition ref="A2:A510"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
